--- a/biology/Zoologie/Chrysomallon_squamiferum/Chrysomallon_squamiferum.xlsx
+++ b/biology/Zoologie/Chrysomallon_squamiferum/Chrysomallon_squamiferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gastéropode écailleux (Chrysomallon squamiferum) est une espèce d'escargot hydrothermal de haute mer, de la famille des Peltospiridae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit à plus de 2 400 mètres de profondeur dans l'océan Indien près des cheminées hydrothermales. La couche supérieure de sa coquille est renforcée de sulfure de fer, ce qui en fait le seul animal connu à impliquer significativement ce métal dans sa structure, ce qui lui permet de résister à des conditions de vie très rudes[2]. D'autres espèces de cette famille sont toutefois capables de métaboliser de la pyrite. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit à plus de 2 400 mètres de profondeur dans l'océan Indien près des cheminées hydrothermales. La couche supérieure de sa coquille est renforcée de sulfure de fer, ce qui en fait le seul animal connu à impliquer significativement ce métal dans sa structure, ce qui lui permet de résister à des conditions de vie très rudes. D'autres espèces de cette famille sont toutefois capables de métaboliser de la pyrite. 
 			Photo in situ.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin squamiferum, « qui porte des écailles », fait référence aux nombreuses sclérites dures recouvrant le pied[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin squamiferum, « qui porte des écailles », fait référence aux nombreuses sclérites dures recouvrant le pied. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les particularités rares de cette espèce l'ont rendu célèbre sur internet[1], et il figure notamment dans le jeu vidéo Dave the Diver[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les particularités rares de cette espèce l'ont rendu célèbre sur internet, et il figure notamment dans le jeu vidéo Dave the Diver.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chen, Linse, Copley &amp; Rogers , 2015 : The ‘scaly-foot gastropod’: a new genus and species of hydrothermal vent-endemic gastropod (Neomphalina: Peltospiridae) from the Indian Ocean. Journal of Molluscan Studies, vol. 81, n. 3, pp. 322–334 (texte intégral) (en).</t>
         </is>
